--- a/Comments/Comentarios-UDES.xlsx
+++ b/Comments/Comentarios-UDES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Autor</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>fgh</t>
+  </si>
+  <si>
+    <t>Universidad piola</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
   </si>
 </sst>
 </file>
@@ -58,19 +67,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -88,6 +97,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
